--- a/data/pca/factorExposure/factorExposure_2012-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-28.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01696025854054464</v>
+        <v>0.02172449792032414</v>
       </c>
       <c r="C2">
-        <v>-0.03395989303712713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02659105554756535</v>
+      </c>
+      <c r="D2">
+        <v>0.002346085974574274</v>
+      </c>
+      <c r="E2">
+        <v>-0.02899956298235998</v>
+      </c>
+      <c r="F2">
+        <v>0.01039772744024372</v>
+      </c>
+      <c r="G2">
+        <v>0.01124800914606017</v>
+      </c>
+      <c r="H2">
+        <v>-0.05525004181794699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06811376964229349</v>
+        <v>0.07806393652820337</v>
       </c>
       <c r="C4">
-        <v>-0.06136156818224141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04112514475904862</v>
+      </c>
+      <c r="D4">
+        <v>-0.06906559344319907</v>
+      </c>
+      <c r="E4">
+        <v>-0.0006594542380541536</v>
+      </c>
+      <c r="F4">
+        <v>0.03365017470655182</v>
+      </c>
+      <c r="G4">
+        <v>-0.00420540636395577</v>
+      </c>
+      <c r="H4">
+        <v>0.02286307769400609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0983722126158247</v>
+        <v>0.1149463675719835</v>
       </c>
       <c r="C6">
-        <v>-0.06723955295690515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04252488300986669</v>
+      </c>
+      <c r="D6">
+        <v>-0.01274252710581437</v>
+      </c>
+      <c r="E6">
+        <v>0.005350063786714836</v>
+      </c>
+      <c r="F6">
+        <v>0.05045733561056852</v>
+      </c>
+      <c r="G6">
+        <v>0.01395834957096927</v>
+      </c>
+      <c r="H6">
+        <v>-0.06524421792660219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0472347728324567</v>
+        <v>0.058654520389187</v>
       </c>
       <c r="C7">
-        <v>-0.03440342700443217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02406513295449114</v>
+      </c>
+      <c r="D7">
+        <v>-0.04243497973679662</v>
+      </c>
+      <c r="E7">
+        <v>-0.0197190032373475</v>
+      </c>
+      <c r="F7">
+        <v>0.03779776867883918</v>
+      </c>
+      <c r="G7">
+        <v>-0.04501170950563362</v>
+      </c>
+      <c r="H7">
+        <v>0.02923917010789282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03475511692576057</v>
+        <v>0.03755829059893735</v>
       </c>
       <c r="C8">
-        <v>-0.02560090106841854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01466079767617396</v>
+      </c>
+      <c r="D8">
+        <v>-0.03555236485044636</v>
+      </c>
+      <c r="E8">
+        <v>-0.002316785580788486</v>
+      </c>
+      <c r="F8">
+        <v>0.0457099235750812</v>
+      </c>
+      <c r="G8">
+        <v>0.02575227202481638</v>
+      </c>
+      <c r="H8">
+        <v>-0.02557315164987302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06259221004053654</v>
+        <v>0.07275712988657651</v>
       </c>
       <c r="C9">
-        <v>-0.04891040055727156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.03044935774831635</v>
+      </c>
+      <c r="D9">
+        <v>-0.06711431001321194</v>
+      </c>
+      <c r="E9">
+        <v>-0.01899817369252325</v>
+      </c>
+      <c r="F9">
+        <v>0.04179532269343351</v>
+      </c>
+      <c r="G9">
+        <v>-0.00400400073569905</v>
+      </c>
+      <c r="H9">
+        <v>0.05199293125496528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03273210263448542</v>
+        <v>0.04381761504527885</v>
       </c>
       <c r="C10">
-        <v>-0.03563115115989094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03601686980015591</v>
+      </c>
+      <c r="D10">
+        <v>0.1789845614070699</v>
+      </c>
+      <c r="E10">
+        <v>-0.04615224263676485</v>
+      </c>
+      <c r="F10">
+        <v>0.0376234426304377</v>
+      </c>
+      <c r="G10">
+        <v>-0.03858095257760501</v>
+      </c>
+      <c r="H10">
+        <v>-0.02988929846273786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06605383091773366</v>
+        <v>0.07491427480231974</v>
       </c>
       <c r="C11">
-        <v>-0.05085188335074983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03002423460361365</v>
+      </c>
+      <c r="D11">
+        <v>-0.06804801464759271</v>
+      </c>
+      <c r="E11">
+        <v>0.0125226335455221</v>
+      </c>
+      <c r="F11">
+        <v>0.03518622393260203</v>
+      </c>
+      <c r="G11">
+        <v>-0.01925383467394233</v>
+      </c>
+      <c r="H11">
+        <v>0.08764632716235958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05160827084868647</v>
+        <v>0.06394723549564242</v>
       </c>
       <c r="C12">
-        <v>-0.05144611468954433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03609080750747875</v>
+      </c>
+      <c r="D12">
+        <v>-0.0531734658734092</v>
+      </c>
+      <c r="E12">
+        <v>-0.007012490746034763</v>
+      </c>
+      <c r="F12">
+        <v>0.03286467442739405</v>
+      </c>
+      <c r="G12">
+        <v>-0.01360330469688203</v>
+      </c>
+      <c r="H12">
+        <v>0.04553549730723362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05665701989349202</v>
+        <v>0.06416408281109758</v>
       </c>
       <c r="C13">
-        <v>-0.05053203676651152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03111287730587573</v>
+      </c>
+      <c r="D13">
+        <v>-0.04176580422133917</v>
+      </c>
+      <c r="E13">
+        <v>0.00167582508822545</v>
+      </c>
+      <c r="F13">
+        <v>0.006525006918935105</v>
+      </c>
+      <c r="G13">
+        <v>0.0002728738629277811</v>
+      </c>
+      <c r="H13">
+        <v>0.06139637659626131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03006630281179114</v>
+        <v>0.03974656168245698</v>
       </c>
       <c r="C14">
-        <v>-0.03062815540809536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02438913873463181</v>
+      </c>
+      <c r="D14">
+        <v>-0.006498984861647027</v>
+      </c>
+      <c r="E14">
+        <v>-0.01795099017101152</v>
+      </c>
+      <c r="F14">
+        <v>0.02125089657334981</v>
+      </c>
+      <c r="G14">
+        <v>0.004299093256705055</v>
+      </c>
+      <c r="H14">
+        <v>0.05471214545082895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03962577603175524</v>
+        <v>0.04061839200318775</v>
       </c>
       <c r="C15">
-        <v>-0.01314313856751661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002824703127891935</v>
+      </c>
+      <c r="D15">
+        <v>-0.01136987614578707</v>
+      </c>
+      <c r="E15">
+        <v>-0.03919855471529871</v>
+      </c>
+      <c r="F15">
+        <v>0.004008223096757952</v>
+      </c>
+      <c r="G15">
+        <v>0.01870711300066639</v>
+      </c>
+      <c r="H15">
+        <v>0.05980519028094897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05522772975113711</v>
+        <v>0.06356882888035255</v>
       </c>
       <c r="C16">
-        <v>-0.04395519227901869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02759066202089459</v>
+      </c>
+      <c r="D16">
+        <v>-0.06247522024590842</v>
+      </c>
+      <c r="E16">
+        <v>0.002484284309227112</v>
+      </c>
+      <c r="F16">
+        <v>0.03106317651245937</v>
+      </c>
+      <c r="G16">
+        <v>-0.00824221980078561</v>
+      </c>
+      <c r="H16">
+        <v>0.05132016761255483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06111922419078305</v>
+        <v>0.06226208503808096</v>
       </c>
       <c r="C20">
-        <v>-0.03723926962508603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0164641142542512</v>
+      </c>
+      <c r="D20">
+        <v>-0.05423225632180427</v>
+      </c>
+      <c r="E20">
+        <v>-0.01511994069453606</v>
+      </c>
+      <c r="F20">
+        <v>0.03137705616867455</v>
+      </c>
+      <c r="G20">
+        <v>-0.008495618125204137</v>
+      </c>
+      <c r="H20">
+        <v>0.04422469586567939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02366476749706807</v>
+        <v>0.02295599089105823</v>
       </c>
       <c r="C21">
-        <v>0.003076996166440985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01050023878401052</v>
+      </c>
+      <c r="D21">
+        <v>-0.03603064819403497</v>
+      </c>
+      <c r="E21">
+        <v>-0.08035423971359161</v>
+      </c>
+      <c r="F21">
+        <v>0.001908271156504773</v>
+      </c>
+      <c r="G21">
+        <v>0.004912301261339498</v>
+      </c>
+      <c r="H21">
+        <v>-0.01331742289598995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06749638196987136</v>
+        <v>0.06254988806353041</v>
       </c>
       <c r="C22">
-        <v>-0.06989545588636728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04078479360427836</v>
+      </c>
+      <c r="D22">
+        <v>-0.09993022108871394</v>
+      </c>
+      <c r="E22">
+        <v>-0.6197312257346438</v>
+      </c>
+      <c r="F22">
+        <v>-0.100389041997809</v>
+      </c>
+      <c r="G22">
+        <v>-0.02239015465866789</v>
+      </c>
+      <c r="H22">
+        <v>-0.1094580464908192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0686925826609549</v>
+        <v>0.06300563095553255</v>
       </c>
       <c r="C23">
-        <v>-0.06930085624926755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03967714426211809</v>
+      </c>
+      <c r="D23">
+        <v>-0.1007300949968919</v>
+      </c>
+      <c r="E23">
+        <v>-0.6187887666560689</v>
+      </c>
+      <c r="F23">
+        <v>-0.09966352501201448</v>
+      </c>
+      <c r="G23">
+        <v>-0.0211726814408072</v>
+      </c>
+      <c r="H23">
+        <v>-0.1044969093785661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06396034739569616</v>
+        <v>0.07513670966050451</v>
       </c>
       <c r="C24">
-        <v>-0.05317991914707434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03372088924151025</v>
+      </c>
+      <c r="D24">
+        <v>-0.06529910177649779</v>
+      </c>
+      <c r="E24">
+        <v>-0.005483856999817531</v>
+      </c>
+      <c r="F24">
+        <v>0.04447401760517818</v>
+      </c>
+      <c r="G24">
+        <v>-0.004933966385607562</v>
+      </c>
+      <c r="H24">
+        <v>0.05856598557870963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0640767485370677</v>
+        <v>0.07327842454049847</v>
       </c>
       <c r="C25">
-        <v>-0.05960938343510169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03883325833392873</v>
+      </c>
+      <c r="D25">
+        <v>-0.06232781289865301</v>
+      </c>
+      <c r="E25">
+        <v>-0.009693535712107858</v>
+      </c>
+      <c r="F25">
+        <v>0.04103886879165081</v>
+      </c>
+      <c r="G25">
+        <v>0.007146280081368382</v>
+      </c>
+      <c r="H25">
+        <v>0.06350868827567357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.03926024969346897</v>
+        <v>0.04247350770520839</v>
       </c>
       <c r="C26">
-        <v>-0.01527411511796522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.00542707069146742</v>
+      </c>
+      <c r="D26">
+        <v>-0.02758267882187412</v>
+      </c>
+      <c r="E26">
+        <v>-0.03515068355622327</v>
+      </c>
+      <c r="F26">
+        <v>0.02822009794248429</v>
+      </c>
+      <c r="G26">
+        <v>-0.01028271319716697</v>
+      </c>
+      <c r="H26">
+        <v>0.06435949344521591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0611927765418582</v>
+        <v>0.07986519081452521</v>
       </c>
       <c r="C28">
-        <v>-0.07420999524612919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07011006063356737</v>
+      </c>
+      <c r="D28">
+        <v>0.3189860371789335</v>
+      </c>
+      <c r="E28">
+        <v>-0.033964122611668</v>
+      </c>
+      <c r="F28">
+        <v>0.05198961965748603</v>
+      </c>
+      <c r="G28">
+        <v>0.02259235077613955</v>
+      </c>
+      <c r="H28">
+        <v>0.007969954395969583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03649825283173851</v>
+        <v>0.04430736409427444</v>
       </c>
       <c r="C29">
-        <v>-0.02925135797236935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02171635005543946</v>
+      </c>
+      <c r="D29">
+        <v>-0.01306082474562907</v>
+      </c>
+      <c r="E29">
+        <v>-0.0381125308455843</v>
+      </c>
+      <c r="F29">
+        <v>0.01750289716603465</v>
+      </c>
+      <c r="G29">
+        <v>-0.01653217009912496</v>
+      </c>
+      <c r="H29">
+        <v>0.09068534524460657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1126843165382642</v>
+        <v>0.1302216484584922</v>
       </c>
       <c r="C30">
-        <v>-0.1001890480308735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06447460957774936</v>
+      </c>
+      <c r="D30">
+        <v>-0.09602253102355131</v>
+      </c>
+      <c r="E30">
+        <v>-0.04248133626592235</v>
+      </c>
+      <c r="F30">
+        <v>0.02362803938310358</v>
+      </c>
+      <c r="G30">
+        <v>0.02803183041821984</v>
+      </c>
+      <c r="H30">
+        <v>-0.04279678227974477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0373561537402311</v>
+        <v>0.043730924952381</v>
       </c>
       <c r="C31">
-        <v>-0.02377579168266809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01396274915341651</v>
+      </c>
+      <c r="D31">
+        <v>-0.02907418580056925</v>
+      </c>
+      <c r="E31">
+        <v>-0.02104455680945045</v>
+      </c>
+      <c r="F31">
+        <v>0.01581402371997327</v>
+      </c>
+      <c r="G31">
+        <v>-0.02416112950634701</v>
+      </c>
+      <c r="H31">
+        <v>0.06604855012329144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03409323528627201</v>
+        <v>0.03347549882541016</v>
       </c>
       <c r="C32">
-        <v>-0.0235804744908102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01288679018303445</v>
+      </c>
+      <c r="D32">
+        <v>-0.0142120039895259</v>
+      </c>
+      <c r="E32">
+        <v>-0.06885011370900342</v>
+      </c>
+      <c r="F32">
+        <v>0.003139202137136689</v>
+      </c>
+      <c r="G32">
+        <v>0.032034379991853</v>
+      </c>
+      <c r="H32">
+        <v>0.03145146836905002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07329289070978487</v>
+        <v>0.0875903897382138</v>
       </c>
       <c r="C33">
-        <v>-0.0518384134046262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03219264702870025</v>
+      </c>
+      <c r="D33">
+        <v>-0.06091298039121703</v>
+      </c>
+      <c r="E33">
+        <v>-0.01375865708086853</v>
+      </c>
+      <c r="F33">
+        <v>0.01137131736662455</v>
+      </c>
+      <c r="G33">
+        <v>-0.01718180965307692</v>
+      </c>
+      <c r="H33">
+        <v>0.05605242599127575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05128824729846299</v>
+        <v>0.05794885822627716</v>
       </c>
       <c r="C34">
-        <v>-0.03350609078028084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01730547906535989</v>
+      </c>
+      <c r="D34">
+        <v>-0.06216011614494055</v>
+      </c>
+      <c r="E34">
+        <v>-0.001209631751829762</v>
+      </c>
+      <c r="F34">
+        <v>0.02734004836699759</v>
+      </c>
+      <c r="G34">
+        <v>-0.002707950863160555</v>
+      </c>
+      <c r="H34">
+        <v>0.04393223534445937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0349152776403365</v>
+        <v>0.03955792418727009</v>
       </c>
       <c r="C35">
-        <v>-0.01192523368634561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004245201889195032</v>
+      </c>
+      <c r="D35">
+        <v>-0.01547567565202163</v>
+      </c>
+      <c r="E35">
+        <v>-0.02131290433277319</v>
+      </c>
+      <c r="F35">
+        <v>0.002181453050118506</v>
+      </c>
+      <c r="G35">
+        <v>-0.01452319892112042</v>
+      </c>
+      <c r="H35">
+        <v>0.03665817414402939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01729441818791662</v>
+        <v>0.02467151039827315</v>
       </c>
       <c r="C36">
-        <v>-0.01684286799237424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01302568469720001</v>
+      </c>
+      <c r="D36">
+        <v>-0.02028274052191899</v>
+      </c>
+      <c r="E36">
+        <v>-0.03724968091364734</v>
+      </c>
+      <c r="F36">
+        <v>0.0232616917089841</v>
+      </c>
+      <c r="G36">
+        <v>-0.01618858919488455</v>
+      </c>
+      <c r="H36">
+        <v>0.05272334345462144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03871111817859902</v>
+        <v>0.04195881823944149</v>
       </c>
       <c r="C38">
-        <v>-0.01052638740344807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002239597407465063</v>
+      </c>
+      <c r="D38">
+        <v>-0.01962609844479822</v>
+      </c>
+      <c r="E38">
+        <v>-0.06093306790354003</v>
+      </c>
+      <c r="F38">
+        <v>-0.01249091965744885</v>
+      </c>
+      <c r="G38">
+        <v>0.01793077533967565</v>
+      </c>
+      <c r="H38">
+        <v>0.04364564396231638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08402732430399334</v>
+        <v>0.09929290699702312</v>
       </c>
       <c r="C39">
-        <v>-0.08221282495514147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05527928731991811</v>
+      </c>
+      <c r="D39">
+        <v>-0.07966768819150287</v>
+      </c>
+      <c r="E39">
+        <v>0.01489571767128008</v>
+      </c>
+      <c r="F39">
+        <v>0.01881723613556966</v>
+      </c>
+      <c r="G39">
+        <v>0.01966769365674106</v>
+      </c>
+      <c r="H39">
+        <v>0.04281036961676353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06737555846099501</v>
+        <v>0.07016175592667938</v>
       </c>
       <c r="C40">
-        <v>-0.05800743996596405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03421909143022606</v>
+      </c>
+      <c r="D40">
+        <v>-0.01020117655101789</v>
+      </c>
+      <c r="E40">
+        <v>-0.02736963621839167</v>
+      </c>
+      <c r="F40">
+        <v>-0.0536716795424475</v>
+      </c>
+      <c r="G40">
+        <v>0.07959329907511742</v>
+      </c>
+      <c r="H40">
+        <v>-0.1007377182969747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0381602645825829</v>
+        <v>0.04222541275265102</v>
       </c>
       <c r="C41">
-        <v>-0.01422290436325347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.005282253312613627</v>
+      </c>
+      <c r="D41">
+        <v>-0.04178972839938484</v>
+      </c>
+      <c r="E41">
+        <v>-0.0069706169405596</v>
+      </c>
+      <c r="F41">
+        <v>-0.005272640130719718</v>
+      </c>
+      <c r="G41">
+        <v>0.008822051144305596</v>
+      </c>
+      <c r="H41">
+        <v>0.04370618085039304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0426077783440542</v>
+        <v>0.05143236408685519</v>
       </c>
       <c r="C43">
-        <v>-0.03272171731838035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02042442260326062</v>
+      </c>
+      <c r="D43">
+        <v>-0.02879467480891623</v>
+      </c>
+      <c r="E43">
+        <v>-0.01572990416090762</v>
+      </c>
+      <c r="F43">
+        <v>0.01578543986297935</v>
+      </c>
+      <c r="G43">
+        <v>-0.01019959041060956</v>
+      </c>
+      <c r="H43">
+        <v>0.05008401559376027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.08973811679444561</v>
+        <v>0.09052413664297235</v>
       </c>
       <c r="C44">
-        <v>-0.09651706790895377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06158308641887827</v>
+      </c>
+      <c r="D44">
+        <v>-0.06111829093720328</v>
+      </c>
+      <c r="E44">
+        <v>-0.09562651926307884</v>
+      </c>
+      <c r="F44">
+        <v>0.0648293305076937</v>
+      </c>
+      <c r="G44">
+        <v>0.02477497990587327</v>
+      </c>
+      <c r="H44">
+        <v>-0.06766027326449577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02567147563321609</v>
+        <v>0.0275685142459218</v>
       </c>
       <c r="C46">
-        <v>-0.01820627751857149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009789628690588538</v>
+      </c>
+      <c r="D46">
+        <v>-0.03350306558245057</v>
+      </c>
+      <c r="E46">
+        <v>-0.01702259077080796</v>
+      </c>
+      <c r="F46">
+        <v>0.01897994936042427</v>
+      </c>
+      <c r="G46">
+        <v>-5.76644915745333e-05</v>
+      </c>
+      <c r="H46">
+        <v>0.04560053774114897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02551347317929439</v>
+        <v>0.02811735644685674</v>
       </c>
       <c r="C47">
-        <v>-0.02111114519826639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01323312850561873</v>
+      </c>
+      <c r="D47">
+        <v>-0.0129864394351568</v>
+      </c>
+      <c r="E47">
+        <v>-0.04593886013786224</v>
+      </c>
+      <c r="F47">
+        <v>0.01581762779014998</v>
+      </c>
+      <c r="G47">
+        <v>-0.03641919581296572</v>
+      </c>
+      <c r="H47">
+        <v>0.03361027469787219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02742705028835882</v>
+        <v>0.03251773553624508</v>
       </c>
       <c r="C48">
-        <v>-0.02030338761938062</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01205080068980566</v>
+      </c>
+      <c r="D48">
+        <v>-0.03422247689238304</v>
+      </c>
+      <c r="E48">
+        <v>-0.04018636781693488</v>
+      </c>
+      <c r="F48">
+        <v>0.01833281389712615</v>
+      </c>
+      <c r="G48">
+        <v>0.002893221578456175</v>
+      </c>
+      <c r="H48">
+        <v>0.05564035831090401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1499307391075973</v>
+        <v>0.1791099174429736</v>
       </c>
       <c r="C49">
-        <v>-0.09170797300374896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05381785999191079</v>
+      </c>
+      <c r="D49">
+        <v>-0.02661352029064735</v>
+      </c>
+      <c r="E49">
+        <v>0.1300211248129324</v>
+      </c>
+      <c r="F49">
+        <v>0.02598696084001654</v>
+      </c>
+      <c r="G49">
+        <v>-0.03891977343239712</v>
+      </c>
+      <c r="H49">
+        <v>-0.2724223347574284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03334554543491872</v>
+        <v>0.04221615933538045</v>
       </c>
       <c r="C50">
-        <v>-0.02834722011228823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02173527569665636</v>
+      </c>
+      <c r="D50">
+        <v>-0.03560949060562116</v>
+      </c>
+      <c r="E50">
+        <v>-0.04493612026875487</v>
+      </c>
+      <c r="F50">
+        <v>0.02974095040376598</v>
+      </c>
+      <c r="G50">
+        <v>-0.02215664963667834</v>
+      </c>
+      <c r="H50">
+        <v>0.07089300042412797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02340339748971254</v>
+        <v>0.02640053003674395</v>
       </c>
       <c r="C51">
-        <v>-0.01488422500762839</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009498960882072648</v>
+      </c>
+      <c r="D51">
+        <v>-0.0224363066291244</v>
+      </c>
+      <c r="E51">
+        <v>-0.01465374461151978</v>
+      </c>
+      <c r="F51">
+        <v>0.01137750511185189</v>
+      </c>
+      <c r="G51">
+        <v>0.004023700581505442</v>
+      </c>
+      <c r="H51">
+        <v>0.01429067018562011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1374601851709732</v>
+        <v>0.1579900728017306</v>
       </c>
       <c r="C53">
-        <v>-0.09639386725919037</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06421636579638874</v>
+      </c>
+      <c r="D53">
+        <v>-0.02347192394083693</v>
+      </c>
+      <c r="E53">
+        <v>0.04134021911619705</v>
+      </c>
+      <c r="F53">
+        <v>0.01320566006261973</v>
+      </c>
+      <c r="G53">
+        <v>-0.004181991892935001</v>
+      </c>
+      <c r="H53">
+        <v>0.1512447297252518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05101769400110898</v>
+        <v>0.05511809824054859</v>
       </c>
       <c r="C54">
-        <v>-0.02922096291588455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01406396366641131</v>
+      </c>
+      <c r="D54">
+        <v>-0.03285962077152456</v>
+      </c>
+      <c r="E54">
+        <v>-0.04674925506688302</v>
+      </c>
+      <c r="F54">
+        <v>0.02106796977744812</v>
+      </c>
+      <c r="G54">
+        <v>0.001368034139205323</v>
+      </c>
+      <c r="H54">
+        <v>0.06159148683478463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09092453042219703</v>
+        <v>0.09872989290644191</v>
       </c>
       <c r="C55">
-        <v>-0.06176581700053488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03896566532911456</v>
+      </c>
+      <c r="D55">
+        <v>-0.03111648073489817</v>
+      </c>
+      <c r="E55">
+        <v>-0.00642056007247962</v>
+      </c>
+      <c r="F55">
+        <v>0.02248832339476984</v>
+      </c>
+      <c r="G55">
+        <v>-0.003396714042343685</v>
+      </c>
+      <c r="H55">
+        <v>0.1366625967313556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1364615075302931</v>
+        <v>0.1563492620226832</v>
       </c>
       <c r="C56">
-        <v>-0.1076211062385613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07281582389380592</v>
+      </c>
+      <c r="D56">
+        <v>-0.0167807041488126</v>
+      </c>
+      <c r="E56">
+        <v>0.04262867904735132</v>
+      </c>
+      <c r="F56">
+        <v>0.04141799409663816</v>
+      </c>
+      <c r="G56">
+        <v>-0.01955810895545377</v>
+      </c>
+      <c r="H56">
+        <v>0.148712903517545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1147749359218372</v>
+        <v>0.09925872181799131</v>
       </c>
       <c r="C58">
-        <v>-0.02826781588524745</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01380437375083839</v>
+      </c>
+      <c r="D58">
+        <v>-0.06166173380943211</v>
+      </c>
+      <c r="E58">
+        <v>-0.1841561147362084</v>
+      </c>
+      <c r="F58">
+        <v>0.02873737238004406</v>
+      </c>
+      <c r="G58">
+        <v>-0.04480275487794078</v>
+      </c>
+      <c r="H58">
+        <v>-0.1954133814321429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.116494220086454</v>
+        <v>0.152325186630298</v>
       </c>
       <c r="C59">
-        <v>-0.08721167308651535</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07983042839173628</v>
+      </c>
+      <c r="D59">
+        <v>0.3549455524412553</v>
+      </c>
+      <c r="E59">
+        <v>-0.04412291848471103</v>
+      </c>
+      <c r="F59">
+        <v>-0.01353678344779533</v>
+      </c>
+      <c r="G59">
+        <v>-0.04133974662495006</v>
+      </c>
+      <c r="H59">
+        <v>0.002750475234547507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1872455338739632</v>
+        <v>0.2198467947631257</v>
       </c>
       <c r="C60">
-        <v>-0.117964363613336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07487096991550664</v>
+      </c>
+      <c r="D60">
+        <v>-0.02607456594055547</v>
+      </c>
+      <c r="E60">
+        <v>0.07196248735370704</v>
+      </c>
+      <c r="F60">
+        <v>0.04085289133582341</v>
+      </c>
+      <c r="G60">
+        <v>0.02525829539676584</v>
+      </c>
+      <c r="H60">
+        <v>-0.1683166281566184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07305323402743198</v>
+        <v>0.08428412441760677</v>
       </c>
       <c r="C61">
-        <v>-0.06218277908463091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04095360280859293</v>
+      </c>
+      <c r="D61">
+        <v>-0.05945375386042014</v>
+      </c>
+      <c r="E61">
+        <v>0.01686896554937384</v>
+      </c>
+      <c r="F61">
+        <v>0.009539225677037931</v>
+      </c>
+      <c r="G61">
+        <v>-0.0151212604145549</v>
+      </c>
+      <c r="H61">
+        <v>0.06911143382593803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1183636573709033</v>
+        <v>0.138355736674642</v>
       </c>
       <c r="C62">
-        <v>-0.08186101363343239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05406372481379802</v>
+      </c>
+      <c r="D62">
+        <v>-0.02601266101450726</v>
+      </c>
+      <c r="E62">
+        <v>0.05631746236612627</v>
+      </c>
+      <c r="F62">
+        <v>0.0150824360814905</v>
+      </c>
+      <c r="G62">
+        <v>0.02688851439308443</v>
+      </c>
+      <c r="H62">
+        <v>0.1507822581822349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.04921141766882518</v>
+        <v>0.05071007843764845</v>
       </c>
       <c r="C63">
-        <v>-0.03292379201679078</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01783247309717725</v>
+      </c>
+      <c r="D63">
+        <v>-0.03000377087662949</v>
+      </c>
+      <c r="E63">
+        <v>-0.04618687262289252</v>
+      </c>
+      <c r="F63">
+        <v>0.01526980608009134</v>
+      </c>
+      <c r="G63">
+        <v>0.03016829820813796</v>
+      </c>
+      <c r="H63">
+        <v>0.08561017526508923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1050654549995616</v>
+        <v>0.1110772616782138</v>
       </c>
       <c r="C64">
-        <v>-0.04134385478347165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01263623905007313</v>
+      </c>
+      <c r="D64">
+        <v>-0.04682441999508703</v>
+      </c>
+      <c r="E64">
+        <v>-0.02263046204571769</v>
+      </c>
+      <c r="F64">
+        <v>0.05637272647908528</v>
+      </c>
+      <c r="G64">
+        <v>0.0205806727811815</v>
+      </c>
+      <c r="H64">
+        <v>0.07924576633069948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1108073578356555</v>
+        <v>0.1240622346292432</v>
       </c>
       <c r="C65">
-        <v>-0.0672669244976435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04076404212444554</v>
+      </c>
+      <c r="D65">
+        <v>-0.008034306974636427</v>
+      </c>
+      <c r="E65">
+        <v>0.002304828618212827</v>
+      </c>
+      <c r="F65">
+        <v>0.06400699465544214</v>
+      </c>
+      <c r="G65">
+        <v>0.03658464658020461</v>
+      </c>
+      <c r="H65">
+        <v>-0.08960054284225012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1309927301001555</v>
+        <v>0.1505817120246696</v>
       </c>
       <c r="C66">
-        <v>-0.09254993936535805</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05586590783479496</v>
+      </c>
+      <c r="D66">
+        <v>-0.1190918352658895</v>
+      </c>
+      <c r="E66">
+        <v>0.05708318565587513</v>
+      </c>
+      <c r="F66">
+        <v>0.03518195005603074</v>
+      </c>
+      <c r="G66">
+        <v>0.02213992524885659</v>
+      </c>
+      <c r="H66">
+        <v>0.117879722765388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.06992997784626172</v>
+        <v>0.07642081071532678</v>
       </c>
       <c r="C67">
-        <v>-0.02261658000026802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007204234867852992</v>
+      </c>
+      <c r="D67">
+        <v>-0.03014526441851687</v>
+      </c>
+      <c r="E67">
+        <v>-0.0268574634086719</v>
+      </c>
+      <c r="F67">
+        <v>0.006592068918226712</v>
+      </c>
+      <c r="G67">
+        <v>-0.003391503941409961</v>
+      </c>
+      <c r="H67">
+        <v>0.03698058716365718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06126859205937667</v>
+        <v>0.07371731860931487</v>
       </c>
       <c r="C68">
-        <v>-0.05061941779776544</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0468616390082007</v>
+      </c>
+      <c r="D68">
+        <v>0.263659296094164</v>
+      </c>
+      <c r="E68">
+        <v>-0.04826085813206106</v>
+      </c>
+      <c r="F68">
+        <v>0.009659498851085415</v>
+      </c>
+      <c r="G68">
+        <v>-0.00894163412066048</v>
+      </c>
+      <c r="H68">
+        <v>0.02208659941615991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04664960174489924</v>
+        <v>0.04684022500722183</v>
       </c>
       <c r="C69">
-        <v>-0.02500969350891063</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.009164997393909018</v>
+      </c>
+      <c r="D69">
+        <v>-0.02607712623159433</v>
+      </c>
+      <c r="E69">
+        <v>-0.02094559562362993</v>
+      </c>
+      <c r="F69">
+        <v>-0.001115437548228604</v>
+      </c>
+      <c r="G69">
+        <v>-0.01051737926150396</v>
+      </c>
+      <c r="H69">
+        <v>0.06039264714676033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004727245266722626</v>
+        <v>0.01652704372915895</v>
       </c>
       <c r="C70">
-        <v>0.003300572057473941</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001162679015859607</v>
+      </c>
+      <c r="D70">
+        <v>0.004873645585219589</v>
+      </c>
+      <c r="E70">
+        <v>0.02147863174786012</v>
+      </c>
+      <c r="F70">
+        <v>0.01478755941129239</v>
+      </c>
+      <c r="G70">
+        <v>-0.01804517130267764</v>
+      </c>
+      <c r="H70">
+        <v>-0.04366257384998144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06492919193003989</v>
+        <v>0.0780444435000458</v>
       </c>
       <c r="C71">
-        <v>-0.04816950065854839</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04466480049988109</v>
+      </c>
+      <c r="D71">
+        <v>0.2951160982828921</v>
+      </c>
+      <c r="E71">
+        <v>-0.04395190925361539</v>
+      </c>
+      <c r="F71">
+        <v>0.03762390888268641</v>
+      </c>
+      <c r="G71">
+        <v>-0.007285009563569079</v>
+      </c>
+      <c r="H71">
+        <v>0.008501323848014573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1328800465118739</v>
+        <v>0.1542026208065193</v>
       </c>
       <c r="C72">
-        <v>-0.07481159493377539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04310243231092682</v>
+      </c>
+      <c r="D72">
+        <v>-0.007861696764422939</v>
+      </c>
+      <c r="E72">
+        <v>0.08403944577495208</v>
+      </c>
+      <c r="F72">
+        <v>-0.1642118027062874</v>
+      </c>
+      <c r="G72">
+        <v>0.1184735249689239</v>
+      </c>
+      <c r="H72">
+        <v>0.02034133594547012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2474580683555383</v>
+        <v>0.2793611239568695</v>
       </c>
       <c r="C73">
-        <v>-0.1438877880084331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07700835461136037</v>
+      </c>
+      <c r="D73">
+        <v>-0.08772684370017797</v>
+      </c>
+      <c r="E73">
+        <v>0.1869631004306302</v>
+      </c>
+      <c r="F73">
+        <v>0.06687649971630324</v>
+      </c>
+      <c r="G73">
+        <v>-0.1682282770988324</v>
+      </c>
+      <c r="H73">
+        <v>-0.6013796298978298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07127089932768571</v>
+        <v>0.08754987236365976</v>
       </c>
       <c r="C74">
-        <v>-0.08298459497958793</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06265653758257225</v>
+      </c>
+      <c r="D74">
+        <v>-0.02937536731892233</v>
+      </c>
+      <c r="E74">
+        <v>0.007268804936234815</v>
+      </c>
+      <c r="F74">
+        <v>-0.01344733802718935</v>
+      </c>
+      <c r="G74">
+        <v>-0.03765665931609355</v>
+      </c>
+      <c r="H74">
+        <v>0.1285076161572685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09240687248807006</v>
+        <v>0.1015734847303227</v>
       </c>
       <c r="C75">
-        <v>-0.06229010204490659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03275207922210236</v>
+      </c>
+      <c r="D75">
+        <v>-0.0117000878311441</v>
+      </c>
+      <c r="E75">
+        <v>0.007321668178749799</v>
+      </c>
+      <c r="F75">
+        <v>0.04846862556834802</v>
+      </c>
+      <c r="G75">
+        <v>-0.02162991746084752</v>
+      </c>
+      <c r="H75">
+        <v>0.115577727080035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1146614036205004</v>
+        <v>0.1310391641860371</v>
       </c>
       <c r="C76">
-        <v>-0.09693132762326462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06607712303659818</v>
+      </c>
+      <c r="D76">
+        <v>-0.04930543206033484</v>
+      </c>
+      <c r="E76">
+        <v>-0.006796013675056232</v>
+      </c>
+      <c r="F76">
+        <v>0.06093384322787992</v>
+      </c>
+      <c r="G76">
+        <v>-0.0110289255491626</v>
+      </c>
+      <c r="H76">
+        <v>0.1571249654718212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.114226016223282</v>
+        <v>0.1130598480484677</v>
       </c>
       <c r="C77">
-        <v>-0.05371844182489366</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01820194827187371</v>
+      </c>
+      <c r="D77">
+        <v>-0.01510647749035009</v>
+      </c>
+      <c r="E77">
+        <v>0.01236980325498097</v>
+      </c>
+      <c r="F77">
+        <v>0.2441741617529024</v>
+      </c>
+      <c r="G77">
+        <v>0.8840896178217722</v>
+      </c>
+      <c r="H77">
+        <v>-0.1054424196847055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.08772720394404604</v>
+        <v>0.1114259798169365</v>
       </c>
       <c r="C78">
-        <v>-0.04826553582140068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03090223576031017</v>
+      </c>
+      <c r="D78">
+        <v>-0.08486167597920727</v>
+      </c>
+      <c r="E78">
+        <v>-0.06389141613469292</v>
+      </c>
+      <c r="F78">
+        <v>0.0182470824493273</v>
+      </c>
+      <c r="G78">
+        <v>0.03815093721112328</v>
+      </c>
+      <c r="H78">
+        <v>-0.1084562038840986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1342531948963059</v>
+        <v>0.1500658610880218</v>
       </c>
       <c r="C79">
-        <v>-0.1016125289098377</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06169546412155133</v>
+      </c>
+      <c r="D79">
+        <v>-0.03072107761558134</v>
+      </c>
+      <c r="E79">
+        <v>0.02821213765109667</v>
+      </c>
+      <c r="F79">
+        <v>0.0245553545728464</v>
+      </c>
+      <c r="G79">
+        <v>-0.02264273256031652</v>
+      </c>
+      <c r="H79">
+        <v>0.1464429095642902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03974474822717402</v>
+        <v>0.0382657423337575</v>
       </c>
       <c r="C80">
-        <v>-0.01968512535504409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007362019108550524</v>
+      </c>
+      <c r="D80">
+        <v>-0.02894406981148939</v>
+      </c>
+      <c r="E80">
+        <v>0.003559364779572895</v>
+      </c>
+      <c r="F80">
+        <v>-0.02484216168282158</v>
+      </c>
+      <c r="G80">
+        <v>-0.03341983214275155</v>
+      </c>
+      <c r="H80">
+        <v>0.04592227665685546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1085118411678255</v>
+        <v>0.1190964288588902</v>
       </c>
       <c r="C81">
-        <v>-0.07681751200952693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.04464906845893424</v>
+      </c>
+      <c r="D81">
+        <v>-0.03159508918518703</v>
+      </c>
+      <c r="E81">
+        <v>0.01182706761018001</v>
+      </c>
+      <c r="F81">
+        <v>0.02806654738448619</v>
+      </c>
+      <c r="G81">
+        <v>-0.06072346122332536</v>
+      </c>
+      <c r="H81">
+        <v>0.1711241814641435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1162705184378028</v>
+        <v>0.1270618563596671</v>
       </c>
       <c r="C82">
-        <v>-0.08901885588873051</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05590035768671939</v>
+      </c>
+      <c r="D82">
+        <v>-0.03369323726487729</v>
+      </c>
+      <c r="E82">
+        <v>0.02758350225549393</v>
+      </c>
+      <c r="F82">
+        <v>0.05041669375394543</v>
+      </c>
+      <c r="G82">
+        <v>-0.05339172447324411</v>
+      </c>
+      <c r="H82">
+        <v>0.1750426770090583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07341563901115425</v>
+        <v>0.07569070149191492</v>
       </c>
       <c r="C83">
-        <v>-0.02318036761333356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.001387587748070824</v>
+      </c>
+      <c r="D83">
+        <v>-0.04652073717143425</v>
+      </c>
+      <c r="E83">
+        <v>-0.01663571984803096</v>
+      </c>
+      <c r="F83">
+        <v>0.01531636773546268</v>
+      </c>
+      <c r="G83">
+        <v>-0.08074862525618309</v>
+      </c>
+      <c r="H83">
+        <v>0.004825108459833916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02554026169457352</v>
+        <v>0.03595340039146482</v>
       </c>
       <c r="C84">
-        <v>-0.02824230203438946</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02336090793303961</v>
+      </c>
+      <c r="D84">
+        <v>-0.03412518070386133</v>
+      </c>
+      <c r="E84">
+        <v>-0.02552858496623317</v>
+      </c>
+      <c r="F84">
+        <v>-0.04994243233291609</v>
+      </c>
+      <c r="G84">
+        <v>-0.053316792375678</v>
+      </c>
+      <c r="H84">
+        <v>0.01438771365296082</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1122714591054993</v>
+        <v>0.1165880165006697</v>
       </c>
       <c r="C85">
-        <v>-0.0728915756771029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03755793129475574</v>
+      </c>
+      <c r="D85">
+        <v>-0.03059377221029114</v>
+      </c>
+      <c r="E85">
+        <v>0.0006768761898946679</v>
+      </c>
+      <c r="F85">
+        <v>0.07368707046390748</v>
+      </c>
+      <c r="G85">
+        <v>-0.03026902273010782</v>
+      </c>
+      <c r="H85">
+        <v>0.1250848231834776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0475294175885412</v>
+        <v>0.05037747540156163</v>
       </c>
       <c r="C86">
-        <v>-0.02660408235527494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01279483990415985</v>
+      </c>
+      <c r="D86">
+        <v>-0.02108443032284942</v>
+      </c>
+      <c r="E86">
+        <v>-0.05544386983757755</v>
+      </c>
+      <c r="F86">
+        <v>0.03098798044596115</v>
+      </c>
+      <c r="G86">
+        <v>-0.006439675573253151</v>
+      </c>
+      <c r="H86">
+        <v>0.01112750489930468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1162568866624854</v>
+        <v>0.1206220714068785</v>
       </c>
       <c r="C87">
-        <v>-0.08126477956403376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04091251808905121</v>
+      </c>
+      <c r="D87">
+        <v>-0.07205665806111007</v>
+      </c>
+      <c r="E87">
+        <v>-0.01160209071510072</v>
+      </c>
+      <c r="F87">
+        <v>0.01996885010628789</v>
+      </c>
+      <c r="G87">
+        <v>0.1047470900812088</v>
+      </c>
+      <c r="H87">
+        <v>0.004121049682585982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05149870324404696</v>
+        <v>0.05775963822669681</v>
       </c>
       <c r="C88">
-        <v>-0.03710820615718074</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02250233161248299</v>
+      </c>
+      <c r="D88">
+        <v>-0.02612330498754007</v>
+      </c>
+      <c r="E88">
+        <v>-0.0158968700882433</v>
+      </c>
+      <c r="F88">
+        <v>0.01124892289261117</v>
+      </c>
+      <c r="G88">
+        <v>0.008724901148404842</v>
+      </c>
+      <c r="H88">
+        <v>0.06971393483254749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08513852700366897</v>
+        <v>0.1116964483280764</v>
       </c>
       <c r="C89">
-        <v>-0.0725371252066129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.06980295635307143</v>
+      </c>
+      <c r="D89">
+        <v>0.3285949633136996</v>
+      </c>
+      <c r="E89">
+        <v>-0.07379063731944131</v>
+      </c>
+      <c r="F89">
+        <v>0.06787449166993574</v>
+      </c>
+      <c r="G89">
+        <v>-0.02902597469043681</v>
+      </c>
+      <c r="H89">
+        <v>-0.004140461438429524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07563973857592636</v>
+        <v>0.09372067523169675</v>
       </c>
       <c r="C90">
-        <v>-0.06251026729623289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05736235378331802</v>
+      </c>
+      <c r="D90">
+        <v>0.3046306475295138</v>
+      </c>
+      <c r="E90">
+        <v>-0.06351584647325632</v>
+      </c>
+      <c r="F90">
+        <v>-0.0108209511810691</v>
+      </c>
+      <c r="G90">
+        <v>-0.006133470715965566</v>
+      </c>
+      <c r="H90">
+        <v>0.02433267687607437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.07635764950930678</v>
+        <v>0.08607899563511581</v>
       </c>
       <c r="C91">
-        <v>-0.06537662032111657</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04190679857479451</v>
+      </c>
+      <c r="D91">
+        <v>-0.02492297267981882</v>
+      </c>
+      <c r="E91">
+        <v>-0.01163738285311382</v>
+      </c>
+      <c r="F91">
+        <v>0.010223364711912</v>
+      </c>
+      <c r="G91">
+        <v>-0.04515457095193454</v>
+      </c>
+      <c r="H91">
+        <v>0.08584623837775764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08565976425310563</v>
+        <v>0.1052952945726363</v>
       </c>
       <c r="C92">
-        <v>-0.07381967652348681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06620911229648946</v>
+      </c>
+      <c r="D92">
+        <v>0.3411911956719503</v>
+      </c>
+      <c r="E92">
+        <v>-0.049138233310789</v>
+      </c>
+      <c r="F92">
+        <v>0.03021168752087638</v>
+      </c>
+      <c r="G92">
+        <v>-0.00548604014738701</v>
+      </c>
+      <c r="H92">
+        <v>0.02156095082221964</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06918898267084332</v>
+        <v>0.09015431320548783</v>
       </c>
       <c r="C93">
-        <v>-0.06306809059272347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06201633752586352</v>
+      </c>
+      <c r="D93">
+        <v>0.3014579406399678</v>
+      </c>
+      <c r="E93">
+        <v>-0.03363936480155857</v>
+      </c>
+      <c r="F93">
+        <v>0.04143435785151732</v>
+      </c>
+      <c r="G93">
+        <v>0.000653933897028008</v>
+      </c>
+      <c r="H93">
+        <v>-0.01175801795984022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1223345359924461</v>
+        <v>0.1259707076876179</v>
       </c>
       <c r="C94">
-        <v>-0.07632638001076383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03521989648710232</v>
+      </c>
+      <c r="D94">
+        <v>-0.05372212764984723</v>
+      </c>
+      <c r="E94">
+        <v>0.02612752754114126</v>
+      </c>
+      <c r="F94">
+        <v>0.02944974967385645</v>
+      </c>
+      <c r="G94">
+        <v>-0.04642204731249791</v>
+      </c>
+      <c r="H94">
+        <v>0.08278618102956929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1121951970276582</v>
+        <v>0.1188422249757934</v>
       </c>
       <c r="C95">
-        <v>-0.05851416539659096</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02255248676128414</v>
+      </c>
+      <c r="D95">
+        <v>-0.05902790656238884</v>
+      </c>
+      <c r="E95">
+        <v>0.009019603750676229</v>
+      </c>
+      <c r="F95">
+        <v>0.02616419413172696</v>
+      </c>
+      <c r="G95">
+        <v>-0.01205636841734276</v>
+      </c>
+      <c r="H95">
+        <v>0.02807910800283494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2012643108130946</v>
+        <v>0.2203407073594787</v>
       </c>
       <c r="C97">
-        <v>-0.07885173481664501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.03093589547763505</v>
+      </c>
+      <c r="D97">
+        <v>0.0226615496662561</v>
+      </c>
+      <c r="E97">
+        <v>0.1169666315935078</v>
+      </c>
+      <c r="F97">
+        <v>-0.8970889757328212</v>
+      </c>
+      <c r="G97">
+        <v>0.190049542900092</v>
+      </c>
+      <c r="H97">
+        <v>0.02096382994194749</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.235662919647902</v>
+        <v>0.2664756091949005</v>
       </c>
       <c r="C98">
-        <v>-0.1186706000167374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05648542961524526</v>
+      </c>
+      <c r="D98">
+        <v>-0.06299583270498874</v>
+      </c>
+      <c r="E98">
+        <v>0.1586172856222305</v>
+      </c>
+      <c r="F98">
+        <v>0.02573648733746511</v>
+      </c>
+      <c r="G98">
+        <v>-0.2641843683680725</v>
+      </c>
+      <c r="H98">
+        <v>-0.1401123015752261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.5528953619165421</v>
+        <v>0.3384217671239739</v>
       </c>
       <c r="C99">
-        <v>0.823499607345845</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9297481763067635</v>
+      </c>
+      <c r="D99">
+        <v>0.06658458890533481</v>
+      </c>
+      <c r="E99">
+        <v>-0.03935409549266448</v>
+      </c>
+      <c r="F99">
+        <v>0.04020801996868865</v>
+      </c>
+      <c r="G99">
+        <v>-0.01572524790396009</v>
+      </c>
+      <c r="H99">
+        <v>0.04034649113926217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03656496602985902</v>
+        <v>0.04440239997942598</v>
       </c>
       <c r="C101">
-        <v>-0.02925671350783435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02179631007588228</v>
+      </c>
+      <c r="D101">
+        <v>-0.01359160430728476</v>
+      </c>
+      <c r="E101">
+        <v>-0.03735477882336382</v>
+      </c>
+      <c r="F101">
+        <v>0.01689819966150762</v>
+      </c>
+      <c r="G101">
+        <v>-0.01657932283489398</v>
+      </c>
+      <c r="H101">
+        <v>0.08997507041156709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
